--- a/data/documentation/spreadsheets/done/BBC-News@wraith.xlsx
+++ b/data/documentation/spreadsheets/done/BBC-News@wraith.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CB6E2-BD21-4BC8-8793-6BCAEF273E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB5DF2-4FA5-4FEE-8776-5CF00E29B28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -407,18 +407,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.3984375" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="39.37890625" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,17 +438,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -456,7 +456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -464,7 +464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -472,7 +472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -480,7 +480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -488,7 +488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -496,7 +496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -504,62 +504,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
